--- a/sprint4/Team4Report.xlsx
+++ b/sprint4/Team4Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Graduate\Courses\2022_09_Courses\546\作业参考\CS554-main-最新\CS554-main\Lab1\Gulati_Siddharth\CS555\sprint4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SIT\CS555\GROUPPJ\PJ1\CS555\sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213D3405-6609-411C-B579-F7D56F0BFD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E678B1-EA68-46D8-9AF7-92ED11EAE478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="226">
   <si>
     <t>Story ID</t>
   </si>
@@ -159,9 +156,6 @@
   </si>
   <si>
     <t>US14</t>
-  </si>
-  <si>
-    <t>No more than five siblings should be born at the same time</t>
   </si>
   <si>
     <t>US15</t>
@@ -284,9 +278,6 @@
     <t>US29</t>
   </si>
   <si>
-    <t>List deceased</t>
-  </si>
-  <si>
     <t>List all deceased individuals in a GEDCOM file</t>
   </si>
   <si>
@@ -318,9 +309,6 @@
   </si>
   <si>
     <t>US33</t>
-  </si>
-  <si>
-    <t>List orphans</t>
   </si>
   <si>
     <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
@@ -739,6 +727,34 @@
     <t>List upcoming birthdays</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>Act Size</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.31</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>US29</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>US33</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>List deceased</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>List orphans</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -843,7 +859,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -911,6 +927,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -946,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1129,6 +1151,25 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1451,19 +1492,19 @@
   <sheetData>
     <row r="1" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>167</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>170</v>
       </c>
       <c r="F1" s="42"/>
       <c r="G1" s="1"/>
@@ -1489,73 +1530,73 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B2" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>171</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>174</v>
       </c>
       <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B3" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="43" t="s">
         <v>179</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>182</v>
       </c>
       <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F5" s="43"/>
     </row>
@@ -1583,10 +1624,10 @@
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
       <c r="D9" s="42" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F9" s="46"/>
     </row>
@@ -1595,10 +1636,10 @@
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="46" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F10" s="43"/>
     </row>
@@ -2618,8 +2659,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2634,7 +2675,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2643,10 +2684,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2675,16 +2716,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2692,16 +2733,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2709,16 +2750,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2726,16 +2767,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2749,10 +2790,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2766,10 +2807,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2777,16 +2818,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2794,16 +2835,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2811,16 +2852,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2828,16 +2869,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2851,10 +2892,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2868,10 +2909,10 @@
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2885,10 +2926,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2902,10 +2943,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2919,10 +2960,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2936,10 +2977,10 @@
         <v>25</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2947,16 +2988,16 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2970,10 +3011,10 @@
         <v>33</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2981,16 +3022,16 @@
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2998,16 +3039,16 @@
         <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3015,16 +3056,16 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" t="s">
         <v>192</v>
       </c>
-      <c r="D22" t="s">
-        <v>195</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3032,16 +3073,16 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" t="s">
         <v>191</v>
       </c>
-      <c r="C23" t="s">
-        <v>194</v>
-      </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3049,16 +3090,16 @@
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3066,16 +3107,16 @@
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3083,16 +3124,16 @@
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3100,16 +3141,16 @@
         <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3117,16 +3158,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
         <v>76</v>
       </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3134,25 +3175,51 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="23">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="70" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="23">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="70" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
@@ -3205,7 +3272,7 @@
     <row r="44" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4192,19 +4259,19 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F3" s="34"/>
     </row>
@@ -4214,13 +4281,13 @@
     </row>
     <row r="5" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F6" s="34"/>
     </row>
@@ -4230,7 +4297,7 @@
     </row>
     <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F8" s="34"/>
     </row>
@@ -4256,25 +4323,25 @@
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B14" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="F14" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="G14" s="32" t="s">
         <v>148</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -4298,7 +4365,7 @@
     </row>
     <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B15" s="33">
         <v>42527</v>
@@ -4314,7 +4381,7 @@
     </row>
     <row r="16" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B16" s="33">
         <v>42540</v>
@@ -4339,7 +4406,7 @@
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B17" s="33">
         <v>42554</v>
@@ -4364,7 +4431,7 @@
     </row>
     <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B18" s="33">
         <v>42568</v>
@@ -4389,7 +4456,7 @@
     </row>
     <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B19" s="33">
         <v>42582</v>
@@ -8366,22 +8433,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="F1" s="32" t="s">
         <v>148</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -8406,7 +8473,7 @@
     </row>
     <row r="2" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B2" s="22">
         <v>8</v>
@@ -12472,45 +12539,45 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>125</v>
-      </c>
       <c r="I1" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E2" s="22">
         <v>10</v>
@@ -12525,21 +12592,21 @@
         <v>40</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E3" s="22">
         <v>5</v>
@@ -12554,21 +12621,21 @@
         <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E4" s="22">
         <v>10</v>
@@ -12583,21 +12650,21 @@
         <v>30</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E5" s="22">
         <v>10</v>
@@ -12612,7 +12679,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12623,10 +12690,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E6" s="22">
         <v>10</v>
@@ -12641,7 +12708,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12652,10 +12719,10 @@
         <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E7" s="22">
         <v>10</v>
@@ -12670,21 +12737,21 @@
         <v>90</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E8" s="22">
         <v>15</v>
@@ -12699,21 +12766,21 @@
         <v>25</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E9" s="22">
         <v>15</v>
@@ -12728,7 +12795,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12749,7 +12816,7 @@
     </row>
     <row r="14" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I14" s="27"/>
     </row>
@@ -12759,17 +12826,17 @@
     </row>
     <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I16" s="27"/>
     </row>
     <row r="17" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
       <c r="C17" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I17" s="27"/>
     </row>
@@ -12783,10 +12850,10 @@
     </row>
     <row r="20" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I20" s="27"/>
     </row>
@@ -16744,39 +16811,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>123</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E2" s="22">
         <v>15</v>
@@ -16791,21 +16858,21 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E3" s="22">
         <v>15</v>
@@ -16820,7 +16887,7 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -16831,10 +16898,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E4" s="22">
         <v>15</v>
@@ -16849,7 +16916,7 @@
         <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -16860,10 +16927,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E5" s="22">
         <v>15</v>
@@ -16878,7 +16945,7 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -16889,10 +16956,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E6" s="22">
         <v>15</v>
@@ -16907,21 +16974,21 @@
         <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E7" s="22">
         <v>15</v>
@@ -16936,7 +17003,7 @@
         <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -16947,10 +17014,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E8" s="22">
         <v>15</v>
@@ -16965,7 +17032,7 @@
         <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -16976,10 +17043,10 @@
         <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E9" s="22">
         <v>15</v>
@@ -16994,7 +17061,7 @@
         <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18002,7 +18069,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -18023,39 +18090,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>123</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E2" s="22">
         <v>15</v>
@@ -18070,7 +18137,7 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18081,10 +18148,10 @@
         <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E3" s="22">
         <v>15</v>
@@ -18099,21 +18166,21 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E4" s="23">
         <v>20</v>
@@ -18128,21 +18195,21 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="E5" s="23">
         <v>20</v>
@@ -18157,21 +18224,21 @@
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E6" s="23">
         <v>20</v>
@@ -18186,21 +18253,21 @@
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E7" s="23">
         <v>20</v>
@@ -18215,21 +18282,21 @@
         <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E8" s="23">
         <v>20</v>
@@ -18237,25 +18304,43 @@
       <c r="F8" s="23">
         <v>30</v>
       </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E9" s="23">
         <v>20</v>
       </c>
       <c r="F9" s="23">
         <v>30</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19263,7 +19348,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -19281,39 +19366,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>123</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -19324,16 +19409,16 @@
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -19344,16 +19429,16 @@
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
         <v>76</v>
       </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -19364,16 +19449,16 @@
     </row>
     <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -19384,16 +19469,16 @@
     </row>
     <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -19404,16 +19489,16 @@
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -19422,8 +19507,46 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20428,8 +20551,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -20512,7 +20635,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>13</v>
@@ -20523,7 +20646,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>15</v>
@@ -20534,7 +20657,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>17</v>
@@ -20589,7 +20712,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>31</v>
@@ -20622,318 +20745,318 @@
         <v>38</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>39</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="62" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="C17" s="53" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="63" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="C19" s="62" t="s">
         <v>48</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="C29" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="60" t="s">
+    </row>
+    <row r="30" spans="1:3" s="66" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="67" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="69" t="s">
         <v>79</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="3" t="s">
+    </row>
+    <row r="34" spans="1:3" s="66" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="B34" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="65" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="56" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="55" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C35" s="56" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="57" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="55" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C41" s="56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="55" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="55" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C43" s="56" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">

--- a/sprint4/Team4Report.xlsx
+++ b/sprint4/Team4Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Graduate\Courses\2022_09_Courses\546\作业参考\CS554-main-最新\CS554-main\Lab1\Gulati_Siddharth\CS555\sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213D3405-6609-411C-B579-F7D56F0BFD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B3788C-F30E-40CD-8AB2-F4AAD670714D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="224">
   <si>
     <t>Story ID</t>
   </si>
@@ -365,16 +365,10 @@
     <t>List upcoming birthdays</t>
   </si>
   <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
     <t>US39</t>
   </si>
   <si>
     <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
   </si>
   <si>
     <t>US40</t>
@@ -739,6 +733,22 @@
     <t>List upcoming birthdays</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.11.18</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -946,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1129,6 +1139,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1451,19 +1464,19 @@
   <sheetData>
     <row r="1" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="D1" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>168</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>170</v>
       </c>
       <c r="F1" s="42"/>
       <c r="G1" s="1"/>
@@ -1489,73 +1502,73 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="E2" s="45" t="s">
         <v>172</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>174</v>
       </c>
       <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="E3" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="E4" s="43" t="s">
         <v>180</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>182</v>
       </c>
       <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B5" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="45" t="s">
         <v>183</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>185</v>
       </c>
       <c r="F5" s="43"/>
     </row>
@@ -1583,10 +1596,10 @@
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
       <c r="D9" s="42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F9" s="46"/>
     </row>
@@ -1595,10 +1608,10 @@
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F10" s="43"/>
     </row>
@@ -2618,8 +2631,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2634,7 +2647,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2643,10 +2656,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2681,10 +2694,10 @@
         <v>63</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2698,10 +2711,10 @@
         <v>74</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2715,10 +2728,10 @@
         <v>83</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2732,10 +2745,10 @@
         <v>86</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2749,10 +2762,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2766,10 +2779,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2783,10 +2796,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2800,10 +2813,10 @@
         <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2817,10 +2830,10 @@
         <v>61</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2834,10 +2847,10 @@
         <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2851,10 +2864,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2868,10 +2881,10 @@
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2885,10 +2898,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2902,10 +2915,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2919,10 +2932,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2936,10 +2949,10 @@
         <v>25</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2947,16 +2960,16 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2970,10 +2983,10 @@
         <v>33</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2981,16 +2994,16 @@
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2998,16 +3011,16 @@
         <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3015,16 +3028,16 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" t="s">
         <v>190</v>
       </c>
-      <c r="C22" t="s">
-        <v>192</v>
-      </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3032,16 +3045,16 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3049,16 +3062,16 @@
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3066,16 +3079,16 @@
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3083,16 +3096,16 @@
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3100,16 +3113,16 @@
         <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3123,10 +3136,10 @@
         <v>77</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3137,22 +3150,48 @@
         <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="23">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="23">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" s="64" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
@@ -3205,7 +3244,7 @@
     <row r="44" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4192,19 +4231,19 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F3" s="34"/>
     </row>
@@ -4214,13 +4253,13 @@
     </row>
     <row r="5" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F6" s="34"/>
     </row>
@@ -4230,7 +4269,7 @@
     </row>
     <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F8" s="34"/>
     </row>
@@ -4256,25 +4295,25 @@
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B14" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="E14" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="F14" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="G14" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -4298,7 +4337,7 @@
     </row>
     <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="33">
         <v>42527</v>
@@ -4314,7 +4353,7 @@
     </row>
     <row r="16" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16" s="33">
         <v>42540</v>
@@ -4339,7 +4378,7 @@
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" s="33">
         <v>42554</v>
@@ -4364,7 +4403,7 @@
     </row>
     <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B18" s="33">
         <v>42568</v>
@@ -4389,7 +4428,7 @@
     </row>
     <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B19" s="33">
         <v>42582</v>
@@ -8366,22 +8405,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -8406,7 +8445,7 @@
     </row>
     <row r="2" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B2" s="22">
         <v>8</v>
@@ -12472,31 +12511,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>125</v>
-      </c>
       <c r="I1" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12507,10 +12546,10 @@
         <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E2" s="22">
         <v>10</v>
@@ -12525,7 +12564,7 @@
         <v>40</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12536,10 +12575,10 @@
         <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" s="22">
         <v>5</v>
@@ -12554,7 +12593,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12565,10 +12604,10 @@
         <v>83</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E4" s="22">
         <v>10</v>
@@ -12583,7 +12622,7 @@
         <v>30</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12594,10 +12633,10 @@
         <v>86</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E5" s="22">
         <v>10</v>
@@ -12612,7 +12651,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12623,10 +12662,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" s="22">
         <v>10</v>
@@ -12641,7 +12680,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12652,10 +12691,10 @@
         <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" s="22">
         <v>10</v>
@@ -12670,7 +12709,7 @@
         <v>90</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12681,10 +12720,10 @@
         <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E8" s="22">
         <v>15</v>
@@ -12699,7 +12738,7 @@
         <v>25</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12710,10 +12749,10 @@
         <v>69</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="22">
         <v>15</v>
@@ -12728,7 +12767,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12749,7 +12788,7 @@
     </row>
     <row r="14" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I14" s="27"/>
     </row>
@@ -12759,17 +12798,17 @@
     </row>
     <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I16" s="27"/>
     </row>
     <row r="17" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
       <c r="C17" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I17" s="27"/>
     </row>
@@ -12783,10 +12822,10 @@
     </row>
     <row r="20" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I20" s="27"/>
     </row>
@@ -16744,25 +16783,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -16773,10 +16812,10 @@
         <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E2" s="22">
         <v>15</v>
@@ -16791,7 +16830,7 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -16802,10 +16841,10 @@
         <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" s="22">
         <v>15</v>
@@ -16820,7 +16859,7 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -16831,10 +16870,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E4" s="22">
         <v>15</v>
@@ -16849,7 +16888,7 @@
         <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -16860,10 +16899,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E5" s="22">
         <v>15</v>
@@ -16878,7 +16917,7 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -16889,10 +16928,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E6" s="22">
         <v>15</v>
@@ -16907,21 +16946,21 @@
         <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E7" s="22">
         <v>15</v>
@@ -16936,7 +16975,7 @@
         <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -16947,10 +16986,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E8" s="22">
         <v>15</v>
@@ -16965,7 +17004,7 @@
         <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -16976,10 +17015,10 @@
         <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E9" s="22">
         <v>15</v>
@@ -16994,7 +17033,7 @@
         <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18023,39 +18062,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E2" s="22">
         <v>15</v>
@@ -18070,7 +18109,7 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18081,10 +18120,10 @@
         <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E3" s="22">
         <v>15</v>
@@ -18099,21 +18138,21 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="C4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="E4" s="23">
         <v>20</v>
@@ -18128,21 +18167,21 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="E5" s="23">
         <v>20</v>
@@ -18157,21 +18196,21 @@
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E6" s="23">
         <v>20</v>
@@ -18186,21 +18225,21 @@
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E7" s="23">
         <v>20</v>
@@ -18215,21 +18254,21 @@
         <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E8" s="23">
         <v>20</v>
@@ -18240,16 +18279,16 @@
     </row>
     <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E9" s="23">
         <v>20</v>
@@ -19263,7 +19302,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A6" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -19281,39 +19320,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" t="s">
         <v>212</v>
       </c>
-      <c r="B2" t="s">
-        <v>214</v>
-      </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -19324,16 +19363,16 @@
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" t="s">
         <v>213</v>
       </c>
-      <c r="B3" t="s">
-        <v>215</v>
-      </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -19350,10 +19389,10 @@
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -19367,13 +19406,13 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -19384,16 +19423,16 @@
     </row>
     <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" t="s">
         <v>195</v>
-      </c>
-      <c r="D6" t="s">
-        <v>202</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -19401,25 +19440,43 @@
       <c r="F6">
         <v>30</v>
       </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" t="s">
         <v>195</v>
-      </c>
-      <c r="D7" t="s">
-        <v>202</v>
       </c>
       <c r="E7">
         <v>20</v>
       </c>
       <c r="F7">
         <v>30</v>
+      </c>
+      <c r="G7">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20428,8 +20485,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -20512,7 +20569,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>13</v>
@@ -20523,7 +20580,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>15</v>
@@ -20534,7 +20591,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>17</v>
@@ -20589,7 +20646,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>31</v>
@@ -20622,7 +20679,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C15" s="51" t="s">
         <v>39</v>
@@ -20633,7 +20690,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C16" s="62" t="s">
         <v>41</v>
@@ -20655,7 +20712,7 @@
         <v>45</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>46</v>
@@ -20754,7 +20811,7 @@
         <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>72</v>
@@ -20853,7 +20910,7 @@
         <v>97</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C36" s="58" t="s">
         <v>98</v>
@@ -20889,51 +20946,51 @@
         <v>106</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>107</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="C40" s="12" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="56" t="s">
         <v>111</v>
-      </c>
-      <c r="B41" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="56" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="56" t="s">
         <v>114</v>
-      </c>
-      <c r="B42" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="56" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="56" t="s">
         <v>117</v>
-      </c>
-      <c r="B43" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="56" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">

--- a/sprint4/Team4Report.xlsx
+++ b/sprint4/Team4Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SIT\CS555\GROUPPJ\PJ1\CS555\sprint4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Graduate\Courses\2022_09_Courses\546\作业参考\CS554-main-最新\CS554-main\Lab1\Gulati_Siddharth\CS555\sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E678B1-EA68-46D8-9AF7-92ED11EAE478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5238581-C2B9-4FDB-8E62-613384374F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="228">
   <si>
     <t>Story ID</t>
   </si>
@@ -753,6 +756,14 @@
   </si>
   <si>
     <t>List orphans</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.11.18</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>comlete</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2659,8 +2670,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3197,10 +3208,10 @@
       <c r="C30" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D30" s="70" t="s">
+      <c r="D30" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E30" s="70" t="s">
+      <c r="E30" s="3" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3214,70 +3225,96 @@
       <c r="C31" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D31" s="70" t="s">
+      <c r="D31" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="3" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" s="70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
     </row>
-    <row r="37" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
     </row>
-    <row r="38" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
     </row>
-    <row r="39" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
     </row>
-    <row r="40" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
     </row>
-    <row r="41" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
     </row>
-    <row r="42" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
     </row>
-    <row r="43" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
     </row>
-    <row r="44" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19347,8 +19384,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -19478,13 +19515,22 @@
         <v>192</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="F6">
         <v>30</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -19498,13 +19544,22 @@
         <v>192</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E7">
         <v>20</v>
       </c>
       <c r="F7">
         <v>30</v>
+      </c>
+      <c r="G7">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">

--- a/sprint4/Team4Report.xlsx
+++ b/sprint4/Team4Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fledge/Developer/CS555/sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DAF7D5-C577-EA4B-BE00-F72383766455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12648357-DD83-464C-86DF-CCCE09BA50CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="245">
   <si>
     <t>Story ID</t>
   </si>
@@ -764,6 +764,57 @@
   </si>
   <si>
     <t>2022.11.24</t>
+  </si>
+  <si>
+    <t>Continue doing</t>
+  </si>
+  <si>
+    <t>Use color to manage user stories to avoid repeated selection and individual duty.</t>
+  </si>
+  <si>
+    <t>The whole group can review previous code, and use existing functions as we can to make code simple.</t>
+  </si>
+  <si>
+    <t>Merge branches after code review.</t>
+  </si>
+  <si>
+    <t>Create issues and assign to other members.</t>
+  </si>
+  <si>
+    <t>Use Google docs for project documentation.</t>
+  </si>
+  <si>
+    <t>Use Github Issues for project tracking.</t>
+  </si>
+  <si>
+    <t>Use git for code management.</t>
+  </si>
+  <si>
+    <t>Group video call for meetings/presentations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad code layout that may mess function management. </t>
+  </si>
+  <si>
+    <t>Avoid doing</t>
+  </si>
+  <si>
+    <t>Testcase file naming is confusing and hard to target.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of process or method to track code changes. </t>
+  </si>
+  <si>
+    <t>Comments are misleading or inaccurate.</t>
+  </si>
+  <si>
+    <t>Lack of code documentation.</t>
+  </si>
+  <si>
+    <t>Ineffective use of design patterns.</t>
+  </si>
+  <si>
+    <t>Code is not scalable.</t>
   </si>
 </sst>
 </file>
@@ -967,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1150,6 +1201,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19339,10 +19393,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B7"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19350,9 +19404,11 @@
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" customWidth="1"/>
     <col min="3" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="76.1640625" customWidth="1"/>
+    <col min="11" max="11" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19380,8 +19436,14 @@
       <c r="I1" s="16" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" s="65" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>208</v>
       </c>
@@ -19409,8 +19471,14 @@
       <c r="I2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>209</v>
       </c>
@@ -19438,8 +19506,14 @@
       <c r="I3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -19467,8 +19541,14 @@
       <c r="I4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -19496,8 +19576,14 @@
       <c r="I5" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -19525,8 +19611,14 @@
       <c r="I6" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>233</v>
+      </c>
+      <c r="K6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -19554,8 +19646,14 @@
       <c r="I7" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -19574,8 +19672,14 @@
       <c r="F8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>235</v>
+      </c>
+      <c r="K8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>222</v>
       </c>
@@ -19594,14 +19698,20 @@
       <c r="F9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="J9" t="s">
+        <v>236</v>
+      </c>
+      <c r="K9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/sprint4/Team4Report.xlsx
+++ b/sprint4/Team4Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fledge/Developer/CS555/sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12648357-DD83-464C-86DF-CCCE09BA50CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FA7DF0-F968-BE40-93F4-C2AAC06721DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
